--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户相关表" sheetId="1" r:id="rId1"/>
     <sheet name="商品相关表" sheetId="2" r:id="rId2"/>
     <sheet name="维修缴费相关表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>表名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -408,10 +408,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -461,14 +457,22 @@
   </si>
   <si>
     <t>address</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,52 +620,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,196 +989,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.25" thickBot="1">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="14.25" thickTop="1">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="20.25" thickBot="1">
       <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
@@ -1195,79 +1199,79 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="14.25" thickTop="1">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25" thickBot="1">
       <c r="A23" s="14" t="s">
         <v>2</v>
       </c>
@@ -1280,77 +1284,77 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14.25" thickTop="1">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.25" thickBot="1">
       <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
@@ -1363,79 +1367,79 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="14.25" thickTop="1">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="12"/>
+    </row>
+    <row r="39" spans="1:9" ht="20.25" thickBot="1">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -1444,53 +1448,53 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="14.25" thickTop="1">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="20"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="18"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+    <row r="42" spans="1:9">
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="20.25" thickBot="1">
       <c r="A47" s="14" t="s">
         <v>38</v>
       </c>
@@ -1499,89 +1503,138 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="14.25" thickTop="1">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="H17:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
@@ -1598,60 +1651,11 @@
     <mergeCell ref="D2:E9"/>
     <mergeCell ref="F2:G9"/>
     <mergeCell ref="H2:K9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1663,83 +1667,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.25" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1754,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="14.25" thickTop="1">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1763,7 +1767,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1772,10 +1776,10 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="20.25" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -1794,121 +1798,121 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="14.25" thickTop="1">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="s">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.25" thickBot="1">
       <c r="A20" s="14" t="s">
         <v>45</v>
       </c>
@@ -1919,68 +1923,68 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="14.25" thickTop="1">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="I21" s="12" t="s">
+      <c r="G21" s="18"/>
+      <c r="I21" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="28" spans="1:15" ht="20.25" thickBot="1">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -1999,118 +2003,168 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="14.25" thickTop="1">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19" t="s">
+      <c r="I29" s="18"/>
+      <c r="J29" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19" t="s">
+      <c r="M29" s="18"/>
+      <c r="N29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19" t="s">
+      <c r="I30" s="18"/>
+      <c r="J30" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19" t="s">
+      <c r="M30" s="18"/>
+      <c r="N30" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="19"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O15"/>
     <mergeCell ref="N16:O16"/>
@@ -2127,56 +2181,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A28:O28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,73 +2191,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14.25" thickTop="1">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -2261,24 +2265,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:13" ht="20.25" thickBot="1">
+      <c r="A12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" thickTop="1">
       <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
@@ -2286,108 +2290,90 @@
         <v>72</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="13"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="D2:E6"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
     <mergeCell ref="L14:M15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
@@ -2396,8 +2382,27 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="J14:K15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="D2:E6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>